--- a/Agile/GCM/Guia - Mapeamento Produtos por Processo.xlsx
+++ b/Agile/GCM/Guia - Mapeamento Produtos por Processo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr codeName="EstaPasta_de_trabalho"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\murak\Documents\repos\Processo\Agile\GCM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nicolas Arvani\Documents\Dev\Java\spinoff\Agile\GCM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3C3B139-01FC-4CB8-A841-8675F03A55E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DBDC9E3-7F21-4974-8F1A-A4D22D0A3978}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13290" tabRatio="663" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="663" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PRD" sheetId="15" r:id="rId1"/>
@@ -136,9 +136,6 @@
     <t>Manual do Usuário</t>
   </si>
   <si>
-    <t>Criar repositorio no SVN conforme Guia - Ferramenta Tortoise</t>
-  </si>
-  <si>
     <t>Empacotamento deve seguir as diretrizes do documento de arquitetura.</t>
   </si>
   <si>
@@ -208,9 +205,6 @@
     <t>Desenvolvimento/Requisitos/Prototipo</t>
   </si>
   <si>
-    <t>Estrutura de Diretórios no SVN</t>
-  </si>
-  <si>
     <t>Unificado no artefato -&gt; Modelos de Analise e Design</t>
   </si>
   <si>
@@ -221,6 +215,12 @@
   </si>
   <si>
     <t>Caso de Desenvolvimento</t>
+  </si>
+  <si>
+    <t>Criar repositorio no Git conforme Guia - Git e GitHub</t>
+  </si>
+  <si>
+    <t>Estrutura de Diretórios</t>
   </si>
 </sst>
 </file>
@@ -640,22 +640,22 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -694,7 +694,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -706,7 +706,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -715,7 +715,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -736,30 +736,30 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1195,23 +1195,23 @@
   </sheetPr>
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
+      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" style="5" customWidth="1"/>
-    <col min="2" max="2" width="41.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.88671875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="41.88671875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="52.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="52.109375" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="60" style="5" customWidth="1"/>
-    <col min="6" max="6" width="37.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="2"/>
+    <col min="6" max="6" width="37.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="35" t="s">
         <v>3</v>
       </c>
@@ -1222,8 +1222,8 @@
       <c r="F1" s="3"/>
       <c r="G1" s="4"/>
     </row>
-    <row r="2" spans="1:7" ht="12" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="10.8" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="37" t="s">
         <v>0</v>
       </c>
@@ -1232,7 +1232,7 @@
       <c r="D3" s="38"/>
       <c r="E3" s="38"/>
     </row>
-    <row r="4" spans="1:7" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="10.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>5</v>
       </c>
@@ -1249,7 +1249,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="39" t="s">
         <v>21</v>
       </c>
@@ -1258,355 +1258,355 @@
       </c>
       <c r="C5" s="14"/>
       <c r="D5" s="24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E5" s="25"/>
     </row>
-    <row r="6" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="33"/>
       <c r="B6" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C6" s="15"/>
       <c r="D6" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E6" s="6"/>
     </row>
-    <row r="7" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="33"/>
       <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="15"/>
       <c r="D7" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E7" s="6"/>
     </row>
-    <row r="8" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="33"/>
       <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="15"/>
       <c r="D8" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="33"/>
       <c r="B9" s="29" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C9" s="30"/>
       <c r="D9" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E9" s="6"/>
     </row>
-    <row r="10" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="33"/>
       <c r="B10" s="29" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C10" s="30"/>
       <c r="D10" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E10" s="6"/>
     </row>
-    <row r="11" spans="1:7" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="34"/>
       <c r="B11" s="12"/>
       <c r="C11" s="17"/>
       <c r="D11" s="13"/>
       <c r="E11" s="28"/>
     </row>
-    <row r="12" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="33" t="s">
         <v>20</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C12" s="15"/>
       <c r="D12" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E12" s="6"/>
     </row>
-    <row r="13" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="33"/>
       <c r="B13" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="19" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="34"/>
       <c r="B14" s="12"/>
       <c r="C14" s="17"/>
       <c r="D14" s="13"/>
       <c r="E14" s="8"/>
     </row>
-    <row r="15" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="40" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C15" s="14"/>
       <c r="D15" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E15" s="6"/>
     </row>
-    <row r="16" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="41"/>
       <c r="B16" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C16" s="15"/>
       <c r="D16" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E16" s="6"/>
     </row>
-    <row r="17" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="41"/>
       <c r="B17" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C17" s="16"/>
       <c r="D17" s="19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="41"/>
       <c r="B18" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E18" s="6"/>
     </row>
-    <row r="19" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="41"/>
       <c r="B19" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C19" s="16"/>
       <c r="D19" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E19" s="6"/>
     </row>
-    <row r="20" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="41"/>
       <c r="B20" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C20" s="16"/>
       <c r="D20" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E20" s="6"/>
     </row>
-    <row r="21" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="41"/>
       <c r="B21" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C21" s="16"/>
       <c r="D21" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E21" s="6"/>
     </row>
-    <row r="22" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="41"/>
       <c r="B22" s="1"/>
       <c r="C22" s="15"/>
       <c r="D22" s="19"/>
       <c r="E22" s="21"/>
     </row>
-    <row r="23" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="41"/>
       <c r="B23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C23" s="15"/>
       <c r="D23" s="19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E23" s="6"/>
     </row>
-    <row r="24" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="41"/>
       <c r="B24" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C24" s="15"/>
       <c r="D24" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="41"/>
       <c r="B25" s="1"/>
       <c r="C25" s="15"/>
       <c r="D25" s="19"/>
       <c r="E25" s="6"/>
     </row>
-    <row r="26" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="41"/>
       <c r="B26" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C26" s="15"/>
       <c r="D26" s="19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E26" s="6"/>
     </row>
-    <row r="27" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="41"/>
       <c r="B27" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C27" s="15"/>
       <c r="D27" s="19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E27" s="6"/>
     </row>
-    <row r="28" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="41"/>
       <c r="B28" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C28" s="15"/>
       <c r="D28" s="19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="41"/>
       <c r="B29" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C29" s="15"/>
       <c r="D29" s="19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="41"/>
       <c r="B30" s="1"/>
       <c r="C30" s="15"/>
       <c r="D30" s="19"/>
       <c r="E30" s="6"/>
     </row>
-    <row r="31" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="41"/>
       <c r="B31" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C31" s="15"/>
       <c r="D31" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="41"/>
       <c r="B32" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C32" s="15"/>
       <c r="D32" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E32" s="6"/>
     </row>
-    <row r="33" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="41"/>
       <c r="B33" s="1"/>
       <c r="C33" s="15"/>
       <c r="D33" s="19"/>
       <c r="E33" s="6"/>
     </row>
-    <row r="34" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="41"/>
       <c r="B34" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C34" s="15"/>
       <c r="D34" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E34" s="6"/>
     </row>
-    <row r="35" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="41"/>
       <c r="B35" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C35" s="15"/>
       <c r="D35" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E35" s="6"/>
     </row>
-    <row r="36" spans="1:5" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="42"/>
       <c r="B36" s="18"/>
       <c r="C36" s="17"/>
       <c r="D36" s="20"/>
       <c r="E36" s="8"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="31" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B37" s="22" t="s">
         <v>19</v>
       </c>
       <c r="C37" s="15"/>
       <c r="D37" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E37" s="6"/>
     </row>
-    <row r="38" spans="1:5" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" ht="10.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="32"/>
       <c r="B38" s="26"/>
       <c r="C38" s="27"/>
